--- a/docs/STATS.xlsx
+++ b/docs/STATS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chi-Lu\Documents\GitHub\Best-NBA-Team-Manager\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Best-NBA-Team-Manager\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8055" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="10-11SEASON" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="13-14SEASON" sheetId="4" r:id="rId4"/>
     <sheet name="14-15SEASON" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="110">
   <si>
     <t>PER</t>
   </si>
@@ -199,19 +202,227 @@
   </si>
   <si>
     <t>J.R. Smith</t>
+  </si>
+  <si>
+    <t>Jared Dudley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Hansbrough </t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Jose Calderon</t>
+  </si>
+  <si>
+    <t>Gerald Wallace</t>
+  </si>
+  <si>
+    <t>Chuck Hayes</t>
+  </si>
+  <si>
+    <t>Josh McRoberts</t>
+  </si>
+  <si>
+    <t>Tiago Splitter</t>
+  </si>
+  <si>
+    <t>Brandon Bass</t>
+  </si>
+  <si>
+    <t>Nazr Mohammed</t>
+  </si>
+  <si>
+    <t>Drew Gooden</t>
+  </si>
+  <si>
+    <t>D.J. Augustin</t>
+  </si>
+  <si>
+    <t>Roy Hibbert</t>
+  </si>
+  <si>
+    <t>Jason Terry</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed Davis </t>
+  </si>
+  <si>
+    <t>Chris Kaman</t>
+  </si>
+  <si>
+    <t>Beno Udrih</t>
+  </si>
+  <si>
+    <t>J.J. Hickson</t>
+  </si>
+  <si>
+    <t>Darren Collison</t>
+  </si>
+  <si>
+    <t>Brandon Jennings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Hansbrough </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jose Calderon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Josh McRoberts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wesley Matthews</t>
+  </si>
+  <si>
+    <t>Nazr Mohammed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luol Deng</t>
+  </si>
+  <si>
+    <t>Jose Calderon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D.J. Augustin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drew Gooden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D.J. Augustin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beno Udrih</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J.J. Hickson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darren Collison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Hansbrough </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gerald Wallace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chuck Hayes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiago Splitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drew Gooden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D.J. Augustin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roy Hibbert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason Terry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beno Udrih</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jared Dudley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darren Collison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandon Jennings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wesley Matthews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michael Beasley</t>
+  </si>
+  <si>
+    <t>Michael Beasley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michael Beasley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michael Beasley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,14 +445,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -516,19 +757,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -542,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -556,7 +798,7 @@
         <v>27.34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -570,7 +812,7 @@
         <v>26.13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -584,7 +826,7 @@
         <v>25.65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -598,7 +840,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -612,7 +854,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -626,7 +868,7 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -640,7 +882,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -654,7 +896,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -668,7 +910,7 @@
         <v>13.93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -682,7 +924,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -696,7 +938,7 @@
         <v>23.33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -710,7 +952,7 @@
         <v>22.78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -724,7 +966,7 @@
         <v>22.67</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -738,7 +980,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -752,7 +994,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -766,7 +1008,7 @@
         <v>21.82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -780,7 +1022,7 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -794,7 +1036,7 @@
         <v>21.57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -808,7 +1050,7 @@
         <v>21.46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -822,7 +1064,7 @@
         <v>21.19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -836,7 +1078,7 @@
         <v>20.79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -850,7 +1092,7 @@
         <v>20.67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -864,7 +1106,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -878,7 +1120,7 @@
         <v>12.44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -892,7 +1134,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -906,7 +1148,7 @@
         <v>18.07</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -920,7 +1162,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -934,7 +1176,7 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -948,7 +1190,7 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -962,7 +1204,7 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -976,7 +1218,7 @@
         <v>17.88</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -990,7 +1232,7 @@
         <v>17.86</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1004,7 +1246,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1018,7 +1260,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1032,7 +1274,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1046,7 +1288,7 @@
         <v>17.420000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1302,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1074,7 +1316,7 @@
         <v>17.22</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1088,7 +1330,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1102,7 +1344,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1116,7 +1358,7 @@
         <v>17.09</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1130,7 +1372,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1144,7 +1386,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1158,7 +1400,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1172,7 +1414,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1186,7 +1428,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1200,7 +1442,7 @@
         <v>16.510000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1214,7 +1456,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1228,7 +1470,7 @@
         <v>16.46</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1242,7 +1484,409 @@
         <v>16.43</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <f>70/82</f>
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="C52">
+        <f>4.9/9</f>
+        <v>0.54444444444444451</v>
+      </c>
+      <c r="D52">
+        <v>16.43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <f>82/82</f>
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f>15.8/9.5</f>
+        <v>1.6631578947368422</v>
+      </c>
+      <c r="D53">
+        <v>16.420000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <f>68/82</f>
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="C54">
+        <f>43.4/10.6</f>
+        <v>4.0943396226415096</v>
+      </c>
+      <c r="D54">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <f>71/82</f>
+        <v>0.86585365853658536</v>
+      </c>
+      <c r="C55">
+        <f>12.9/11/3</f>
+        <v>0.39090909090909093</v>
+      </c>
+      <c r="D55">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <f>74/82</f>
+        <v>0.90243902439024393</v>
+      </c>
+      <c r="C56">
+        <f>24.8/10.6</f>
+        <v>2.3396226415094339</v>
+      </c>
+      <c r="D56">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <f>72/82</f>
+        <v>0.87804878048780488</v>
+      </c>
+      <c r="C57">
+        <f>22/13.6</f>
+        <v>1.6176470588235294</v>
+      </c>
+      <c r="D57">
+        <v>16.079999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <f>60/82</f>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="C58">
+        <f>8.4/10.3</f>
+        <v>0.81553398058252424</v>
+      </c>
+      <c r="D58">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <f>76/82</f>
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="C59">
+        <f>6.3/10.8</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="D59">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <f>75/82</f>
+        <v>0.91463414634146345</v>
+      </c>
+      <c r="C60">
+        <f>3.9/11.9</f>
+        <v>0.32773109243697479</v>
+      </c>
+      <c r="D60">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <f>35/82</f>
+        <v>0.42682926829268292</v>
+      </c>
+      <c r="C61">
+        <f>9.4/9.2</f>
+        <v>1.0217391304347827</v>
+      </c>
+      <c r="D61">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
+        <f>82/82</f>
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f>28.6/8.9</f>
+        <v>3.2134831460674156</v>
+      </c>
+      <c r="D62">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <f>81/82</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C63">
+        <f>12.2/13.6</f>
+        <v>0.89705882352941169</v>
+      </c>
+      <c r="D63">
+        <v>15.96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <f>82/82</f>
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <f>19.8/9.9</f>
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <f>15.93</f>
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <f>81/82</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C65">
+        <f>29.9/10</f>
+        <v>2.9899999999999998</v>
+      </c>
+      <c r="D65">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <f>69/82</f>
+        <v>0.84146341463414631</v>
+      </c>
+      <c r="C66">
+        <f>29/13.2</f>
+        <v>2.1969696969696972</v>
+      </c>
+      <c r="D66">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <f>65/82</f>
+        <v>0.79268292682926833</v>
+      </c>
+      <c r="C67">
+        <f>7.7/9.3</f>
+        <v>0.82795698924731176</v>
+      </c>
+      <c r="D67">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <f>32/82</f>
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="C68">
+        <f>9.1/11.5</f>
+        <v>0.79130434782608694</v>
+      </c>
+      <c r="D68">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <f>79/82</f>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="C69">
+        <f>26.6/9.7</f>
+        <v>2.7422680412371139</v>
+      </c>
+      <c r="D69">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <f>80/82</f>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C70">
+        <f>6.7/12.7</f>
+        <v>0.5275590551181103</v>
+      </c>
+      <c r="D70">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71">
+        <f>82/82</f>
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <f>11.9/8.5</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D71">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <f>79/82</f>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="C72">
+        <f>25.7/12.4</f>
+        <v>2.07258064516129</v>
+      </c>
+      <c r="D72">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <f>63/82</f>
+        <v>0.76829268292682928</v>
+      </c>
+      <c r="C73">
+        <f>20.5/9.8</f>
+        <v>2.0918367346938775</v>
+      </c>
+      <c r="D73">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <f>82/82</f>
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <f>11.6/9.7</f>
+        <v>1.1958762886597938</v>
+      </c>
+      <c r="D74">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <f>82/82</f>
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <f>13.6/9.2</f>
+        <v>1.4782608695652175</v>
+      </c>
+      <c r="D75">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76">
+        <f>73/82</f>
+        <v>0.8902439024390244</v>
+      </c>
+      <c r="C76">
+        <f>9.1/11.3</f>
+        <v>0.80530973451327426</v>
+      </c>
+      <c r="D76">
+        <v>15.54</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1250,19 +1894,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1276,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +1935,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1304,7 +1949,7 @@
         <v>24.29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1963,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1332,7 +1977,7 @@
         <v>25.41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1991,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +2005,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +2019,7 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1388,7 +2033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1402,7 +2047,7 @@
         <v>15.02</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +2061,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1430,7 +2075,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1444,7 +2089,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +2103,7 @@
         <v>17.96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1472,7 +2117,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1486,7 +2131,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1500,7 +2145,7 @@
         <v>21.15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1514,7 +2159,7 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +2173,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1542,7 +2187,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1556,7 +2201,7 @@
         <v>20.34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1570,7 +2215,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1584,7 +2229,7 @@
         <v>20.47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1598,7 +2243,7 @@
         <v>17.84</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1612,7 +2257,7 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1626,7 +2271,7 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1640,7 +2285,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1654,7 +2299,7 @@
         <v>19.43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1668,7 +2313,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1682,7 +2327,7 @@
         <v>17.98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +2341,7 @@
         <v>18.68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1710,7 +2355,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1724,7 +2369,7 @@
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1738,7 +2383,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1752,7 +2397,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1766,7 +2411,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1780,7 +2425,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1794,7 +2439,7 @@
         <v>17.59</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1808,7 +2453,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1822,7 +2467,7 @@
         <v>17.61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1836,7 +2481,7 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1850,7 +2495,7 @@
         <v>15.05</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1864,7 +2509,7 @@
         <v>18.41</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1878,7 +2523,7 @@
         <v>14.92</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1892,7 +2537,7 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1906,7 +2551,7 @@
         <v>13.46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1920,7 +2565,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1934,7 +2579,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1948,7 +2593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1962,7 +2607,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1976,27 +2621,429 @@
         <v>15.27</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52">
+        <f>66/82</f>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="C52">
+        <f>4.3/9.3</f>
+        <v>0.46236559139784938</v>
+      </c>
+      <c r="D52">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <f>62/82</f>
+        <v>0.75609756097560976</v>
+      </c>
+      <c r="C53">
+        <f>19.8/11.8</f>
+        <v>1.6779661016949152</v>
+      </c>
+      <c r="D53">
+        <v>21.13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54">
+        <f>53/82</f>
+        <v>0.64634146341463417</v>
+      </c>
+      <c r="C54">
+        <f>43.4/9.6</f>
+        <v>4.520833333333333</v>
+      </c>
+      <c r="D54">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <f>58/82</f>
+        <v>0.70731707317073167</v>
+      </c>
+      <c r="C55">
+        <f>16.3/11</f>
+        <v>1.4818181818181819</v>
+      </c>
+      <c r="D55">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <f>54/82</f>
+        <v>0.65853658536585369</v>
+      </c>
+      <c r="C56">
+        <f>24.5/15.9</f>
+        <v>1.540880503144654</v>
+      </c>
+      <c r="D56">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <f>50/82</f>
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="C57">
+        <f>23.6/14.4</f>
+        <v>1.6388888888888888</v>
+      </c>
+      <c r="D57">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <f>59/82</f>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="C58">
+        <f>11.3/15.1</f>
+        <v>0.7483443708609272</v>
+      </c>
+      <c r="D58">
+        <v>20.51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <f>59/82</f>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="C59">
+        <f>6.7/7.9</f>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="D59">
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60">
+        <f>63/82</f>
+        <v>0.76829268292682928</v>
+      </c>
+      <c r="C60">
+        <f>6.4/11.9</f>
+        <v>0.53781512605042014</v>
+      </c>
+      <c r="D60">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <f>56/82</f>
+        <v>0.68292682926829273</v>
+      </c>
+      <c r="C61">
+        <f>14.4/10.9</f>
+        <v>1.3211009174311927</v>
+      </c>
+      <c r="D61">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
+        <f>48/82</f>
+        <v>0.58536585365853655</v>
+      </c>
+      <c r="C62">
+        <f>32.1/11.5</f>
+        <v>2.7913043478260873</v>
+      </c>
+      <c r="D62">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <f>65/82</f>
+        <v>0.79268292682926833</v>
+      </c>
+      <c r="C63">
+        <f>10.7/12.7</f>
+        <v>0.84251968503937003</v>
+      </c>
+      <c r="D63">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <f>63/82</f>
+        <v>0.76829268292682928</v>
+      </c>
+      <c r="C64">
+        <f>18.3/10.3</f>
+        <v>1.7766990291262135</v>
+      </c>
+      <c r="D64">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <f>62/82</f>
+        <v>0.75609756097560976</v>
+      </c>
+      <c r="C65">
+        <f>31.5/9.7</f>
+        <v>3.2474226804123716</v>
+      </c>
+      <c r="D65">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <f>66/82</f>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="C66">
+        <f>28.6/13.7</f>
+        <v>2.0875912408759127</v>
+      </c>
+      <c r="D66">
+        <v>17.77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <f>66/82</f>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="C67">
+        <f>11.8/13.2</f>
+        <v>0.89393939393939403</v>
+      </c>
+      <c r="D67">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <f>47/82</f>
+        <v>0.57317073170731703</v>
+      </c>
+      <c r="C68">
+        <f>11.6/14.8</f>
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="D68">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <f>59/82</f>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="C69">
+        <f>34.4/11.7</f>
+        <v>2.9401709401709404</v>
+      </c>
+      <c r="D69">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <f>54/82</f>
+        <v>0.65853658536585369</v>
+      </c>
+      <c r="C70">
+        <f>8/12.4</f>
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="D70">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71">
+        <f>65/82</f>
+        <v>0.79268292682926833</v>
+      </c>
+      <c r="C71">
+        <f>12.5/8</f>
+        <v>1.5625</v>
+      </c>
+      <c r="D71">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <f>60/82</f>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="C72">
+        <f>29/11.5</f>
+        <v>2.5217391304347827</v>
+      </c>
+      <c r="D72">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <f>66/82</f>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="C73">
+        <f>21/8.4</f>
+        <v>2.5</v>
+      </c>
+      <c r="D73">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <f>66/82</f>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="C74">
+        <f>11/7.1</f>
+        <v>1.5492957746478875</v>
+      </c>
+      <c r="D74">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <f>54/82</f>
+        <v>0.65853658536585369</v>
+      </c>
+      <c r="C75">
+        <f>14.5/8.9</f>
+        <v>1.6292134831460674</v>
+      </c>
+      <c r="D75">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76">
+        <f>47/82</f>
+        <v>0.57317073170731703</v>
+      </c>
+      <c r="C76">
+        <f>6.8/12.1</f>
+        <v>0.56198347107438018</v>
+      </c>
+      <c r="D76">
+        <v>13.11</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2010,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +3071,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2038,7 +3085,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2052,7 +3099,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2066,7 +3113,7 @@
         <v>17.97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2080,7 +3127,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2094,7 +3141,7 @@
         <v>26.43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2108,7 +3155,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2122,7 +3169,7 @@
         <v>23.98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2136,7 +3183,7 @@
         <v>14.47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2150,7 +3197,7 @@
         <v>19.88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2164,7 +3211,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +3225,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2192,7 +3239,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2206,7 +3253,7 @@
         <v>24.45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2220,7 +3267,7 @@
         <v>22.44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2234,7 +3281,7 @@
         <v>24.83</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2248,7 +3295,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2262,7 +3309,7 @@
         <v>20.45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2276,7 +3323,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2290,7 +3337,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2304,7 +3351,7 @@
         <v>19.84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2318,7 +3365,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2332,7 +3379,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2346,7 +3393,7 @@
         <v>13.89</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2360,7 +3407,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2374,7 +3421,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2388,7 +3435,7 @@
         <v>17.96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2402,7 +3449,7 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2416,7 +3463,7 @@
         <v>13.67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2430,7 +3477,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2444,7 +3491,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2458,7 +3505,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2472,7 +3519,7 @@
         <v>15.45</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2486,7 +3533,7 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2500,7 +3547,7 @@
         <v>17.329999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2514,7 +3561,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2528,7 +3575,7 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2542,7 +3589,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2556,7 +3603,7 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2570,7 +3617,7 @@
         <v>18.12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2584,7 +3631,7 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2598,7 +3645,7 @@
         <v>19.57</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2612,7 +3659,7 @@
         <v>13.81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2626,7 +3673,7 @@
         <v>15.23</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2640,7 +3687,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2654,7 +3701,7 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2668,7 +3715,7 @@
         <v>17.510000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2682,7 +3729,7 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2696,7 +3743,7 @@
         <v>14.14</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2710,26 +3757,428 @@
         <v>17.670000000000002</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52">
+        <f>81/82</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C52">
+        <f>5.5/11.9</f>
+        <v>0.4621848739495798</v>
+      </c>
+      <c r="D52">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <f>78/82</f>
+        <v>0.95121951219512191</v>
+      </c>
+      <c r="C53">
+        <f>18.7/12.1</f>
+        <v>1.5454545454545454</v>
+      </c>
+      <c r="D53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54">
+        <f>73/82</f>
+        <v>0.8902439024390244</v>
+      </c>
+      <c r="C54">
+        <f>39.4/9.6</f>
+        <v>4.104166666666667</v>
+      </c>
+      <c r="D54">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <f>69/82</f>
+        <v>0.84146341463414631</v>
+      </c>
+      <c r="C55">
+        <f>21.7/13.2</f>
+        <v>1.643939393939394</v>
+      </c>
+      <c r="D55">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <f>74/82</f>
+        <v>0.90243902439024393</v>
+      </c>
+      <c r="C56">
+        <f>30.5/12</f>
+        <v>2.5416666666666665</v>
+      </c>
+      <c r="D56">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <f>67/82</f>
+        <v>0.81707317073170727</v>
+      </c>
+      <c r="C57">
+        <f>24/11.2</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="D57">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <f>81/82</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C58">
+        <f>14.2/10.9</f>
+        <v>1.3027522935779816</v>
+      </c>
+      <c r="D58">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <f>81/82</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C59">
+        <f>10.3/9.8</f>
+        <v>1.0510204081632653</v>
+      </c>
+      <c r="D59">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60">
+        <f>63/82</f>
+        <v>0.76829268292682928</v>
+      </c>
+      <c r="C60">
+        <f>10.4/9.6</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="D60">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <f>16/82</f>
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="C61">
+        <f>7.2/10.8</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D61">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62">
+        <f>76/82</f>
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="C62">
+        <f>29.5/11.8</f>
+        <v>2.5</v>
+      </c>
+      <c r="D62">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <f>79/82</f>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="C63">
+        <f>9.2/13.1</f>
+        <v>0.70229007633587781</v>
+      </c>
+      <c r="D63">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <f>79/82</f>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="C64">
+        <f>19.7/10.1</f>
+        <v>1.9504950495049505</v>
+      </c>
+      <c r="D64">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <f>80/82</f>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C65">
+        <f>28/10.9</f>
+        <v>2.568807339449541</v>
+      </c>
+      <c r="D65" s="2">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <f>49/82</f>
+        <v>0.59756097560975607</v>
+      </c>
+      <c r="C66">
+        <f>26.7/11.2</f>
+        <v>2.3839285714285716</v>
+      </c>
+      <c r="D66">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <f>81/82</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C67">
+        <f>9.2/9.2</f>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <f>66/82</f>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="C68">
+        <f>6.3/12.7</f>
+        <v>0.49606299212598426</v>
+      </c>
+      <c r="D68">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <f>66/82</f>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="C69">
+        <f>32.4/11.6</f>
+        <v>2.7931034482758621</v>
+      </c>
+      <c r="D69">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <f>80/82</f>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C70">
+        <f>8/13.2</f>
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="D70">
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71">
+        <f>79/82</f>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="C71">
+        <f>19.4/9.7</f>
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <f>81/82</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C72">
+        <f>29/12.1</f>
+        <v>2.3966942148760331</v>
+      </c>
+      <c r="D72">
+        <v>16.37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <f>80/82</f>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C73">
+        <f>24.9/9.7</f>
+        <v>2.5670103092783507</v>
+      </c>
+      <c r="D73">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <f>69/82</f>
+        <v>0.84146341463414631</v>
+      </c>
+      <c r="C74">
+        <f>14.8/9.3</f>
+        <v>1.5913978494623655</v>
+      </c>
+      <c r="D74">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <f>75 /82</f>
+        <v>0.91463414634146345</v>
+      </c>
+      <c r="C75">
+        <f>14/9.1</f>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="D75">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <f>75/82</f>
+        <v>0.91463414634146345</v>
+      </c>
+      <c r="C76">
+        <f>10.3/13.4</f>
+        <v>0.76865671641791045</v>
+      </c>
+      <c r="D76">
+        <v>10.91</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2743,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2757,7 +4206,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2771,7 +4220,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2785,7 +4234,7 @@
         <v>22.06</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2799,7 +4248,7 @@
         <v>26.97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2813,7 +4262,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2827,7 +4276,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2841,7 +4290,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2855,7 +4304,7 @@
         <v>24.74</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2869,7 +4318,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2883,7 +4332,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2897,7 +4346,7 @@
         <v>19.34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2911,7 +4360,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2925,7 +4374,7 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2939,7 +4388,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2953,7 +4402,7 @@
         <v>23.98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2967,7 +4416,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2981,7 +4430,7 @@
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2995,7 +4444,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3009,7 +4458,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3023,7 +4472,7 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3037,7 +4486,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3051,7 +4500,7 @@
         <v>13.35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3065,7 +4514,7 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3079,7 +4528,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3093,7 +4542,7 @@
         <v>12.91</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -3107,7 +4556,7 @@
         <v>18.16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -3121,7 +4570,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -3135,7 +4584,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -3149,7 +4598,7 @@
         <v>18.28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -3163,7 +4612,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -3177,7 +4626,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3191,7 +4640,7 @@
         <v>19.21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -3205,7 +4654,7 @@
         <v>17.66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -3219,7 +4668,7 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3233,7 +4682,7 @@
         <v>15.44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3247,7 +4696,7 @@
         <v>10.15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -3261,7 +4710,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -3275,7 +4724,7 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -3289,7 +4738,7 @@
         <v>17.329999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -3303,7 +4752,7 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3317,7 +4766,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3331,7 +4780,7 @@
         <v>18.27</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -3345,7 +4794,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -3359,7 +4808,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -3373,7 +4822,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -3387,7 +4836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -3401,7 +4850,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -3415,7 +4864,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -3429,7 +4878,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -3443,26 +4892,428 @@
         <v>14</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52">
+        <f>64/82</f>
+        <v>0.78048780487804881</v>
+      </c>
+      <c r="C52">
+        <f>5/13.8</f>
+        <v>0.36231884057971014</v>
+      </c>
+      <c r="D52">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <f>73/82</f>
+        <v>0.8902439024390244</v>
+      </c>
+      <c r="C53">
+        <f>20.2/12</f>
+        <v>1.6833333333333333</v>
+      </c>
+      <c r="D53">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54">
+        <f>81/82</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C54">
+        <f>30/8.2</f>
+        <v>3.6585365853658538</v>
+      </c>
+      <c r="D54">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <f>58/82</f>
+        <v>0.70731707317073167</v>
+      </c>
+      <c r="C55">
+        <f xml:space="preserve"> 27.8/18.9</f>
+        <v>1.4708994708994712</v>
+      </c>
+      <c r="D55">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <f>61/82</f>
+        <v>0.74390243902439024</v>
+      </c>
+      <c r="C56">
+        <f>16.7/15.8</f>
+        <v>1.0569620253164556</v>
+      </c>
+      <c r="D56">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <f>78/82</f>
+        <v>0.95121951219512191</v>
+      </c>
+      <c r="C57">
+        <f>32.7/8.1</f>
+        <v>4.0370370370370372</v>
+      </c>
+      <c r="D57">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <f>59/82</f>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="C58">
+        <f>15.3/12.8</f>
+        <v>1.1953125</v>
+      </c>
+      <c r="D58">
+        <v>16.579999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <f>82/82</f>
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <f>8.5/10</f>
+        <v>0.85</v>
+      </c>
+      <c r="D59">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60">
+        <f>80/82</f>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C60">
+        <f>10.2/18.9</f>
+        <v>0.53968253968253965</v>
+      </c>
+      <c r="D60">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <f>22/82</f>
+        <v>0.26829268292682928</v>
+      </c>
+      <c r="C61">
+        <f>8/9.1</f>
+        <v>0.87912087912087911</v>
+      </c>
+      <c r="D61">
+        <v>18.440000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62">
+        <f>71/82</f>
+        <v>0.86585365853658536</v>
+      </c>
+      <c r="C62">
+        <f>24.9/10</f>
+        <v>2.4899999999999998</v>
+      </c>
+      <c r="D62">
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <f>81/82</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C63">
+        <f>8.2/13.3</f>
+        <v>0.61654135338345861</v>
+      </c>
+      <c r="D63">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <f>35/82</f>
+        <v>0.42682926829268292</v>
+      </c>
+      <c r="C64">
+        <f>23.2/11.2</f>
+        <v>2.0714285714285716</v>
+      </c>
+      <c r="D64">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <f>73/82</f>
+        <v>0.8902439024390244</v>
+      </c>
+      <c r="C65">
+        <f>25.3/8.6</f>
+        <v>2.9418604651162794</v>
+      </c>
+      <c r="D65">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <f>82/82</f>
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <f>28.5/11.7</f>
+        <v>2.4358974358974361</v>
+      </c>
+      <c r="D66">
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <f>63/82</f>
+        <v>0.76829268292682928</v>
+      </c>
+      <c r="C67">
+        <f>6.8/10.1</f>
+        <v>0.67326732673267331</v>
+      </c>
+      <c r="D67">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <f>39/82</f>
+        <v>0.47560975609756095</v>
+      </c>
+      <c r="C68">
+        <f>11.4/14.6</f>
+        <v>0.78082191780821919</v>
+      </c>
+      <c r="D68">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69">
+        <f>41/82</f>
+        <v>0.5</v>
+      </c>
+      <c r="C69">
+        <f>32.8/13.3</f>
+        <v>2.4661654135338344</v>
+      </c>
+      <c r="D69">
+        <v>12.73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70">
+        <f>69/82</f>
+        <v>0.84146341463414631</v>
+      </c>
+      <c r="C70">
+        <f>9.5/12.7</f>
+        <v>0.74803149606299213</v>
+      </c>
+      <c r="D70">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71">
+        <f>74/82</f>
+        <v>0.90243902439024393</v>
+      </c>
+      <c r="C71">
+        <f>16.4/8.9</f>
+        <v>1.842696629213483</v>
+      </c>
+      <c r="D71">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72">
+        <f>80/82</f>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C72">
+        <f>24.3/10.8</f>
+        <v>2.25</v>
+      </c>
+      <c r="D72">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <f>80/82</f>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C73">
+        <f>29/10.2</f>
+        <v>2.8431372549019609</v>
+      </c>
+      <c r="D73">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <f>82/82</f>
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <f>13.6/7.6</f>
+        <v>1.7894736842105263</v>
+      </c>
+      <c r="D74">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <f>63/82</f>
+        <v>0.76829268292682928</v>
+      </c>
+      <c r="C75">
+        <f>14.4/8.9</f>
+        <v>1.6179775280898876</v>
+      </c>
+      <c r="D75">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76">
+        <f>55/82</f>
+        <v>0.67073170731707321</v>
+      </c>
+      <c r="C76">
+        <f>8.4/11.7</f>
+        <v>0.71794871794871806</v>
+      </c>
+      <c r="D76">
+        <v>16.8</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3476,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3490,7 +5341,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3504,7 +5355,7 @@
         <v>18.489999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3518,7 +5369,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3532,7 +5383,7 @@
         <v>19.11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3546,7 +5397,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3560,7 +5411,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3574,7 +5425,7 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3588,7 +5439,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3602,7 +5453,7 @@
         <v>15.83</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3616,7 +5467,7 @@
         <v>19.34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3630,7 +5481,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3644,7 +5495,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3658,7 +5509,7 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3672,7 +5523,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3686,7 +5537,7 @@
         <v>22.64</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3700,7 +5551,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3714,7 +5565,7 @@
         <v>16.510000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3728,7 +5579,7 @@
         <v>22.77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3742,7 +5593,7 @@
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3756,7 +5607,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3770,7 +5621,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3784,7 +5635,7 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3798,7 +5649,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3812,7 +5663,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3826,7 +5677,7 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -3840,7 +5691,7 @@
         <v>21.15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -3854,7 +5705,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -3868,7 +5719,7 @@
         <v>13.93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -3882,7 +5733,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -3896,7 +5747,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -3910,7 +5761,7 @@
         <v>19.489999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3924,7 +5775,7 @@
         <v>18.73</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -3938,7 +5789,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -3952,7 +5803,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3966,7 +5817,7 @@
         <v>15.14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3980,7 +5831,7 @@
         <v>14.47</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -3994,7 +5845,7 @@
         <v>12.71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -4008,7 +5859,7 @@
         <v>15.16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -4022,7 +5873,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -4036,7 +5887,7 @@
         <v>12.91</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -4050,7 +5901,7 @@
         <v>11.08</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -4064,7 +5915,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -4078,7 +5929,7 @@
         <v>15.61</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -4092,7 +5943,7 @@
         <v>15.29</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -4106,7 +5957,7 @@
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -4120,7 +5971,7 @@
         <v>15.07</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -4134,7 +5985,7 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -4148,7 +5999,7 @@
         <v>16.54</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -4162,7 +6013,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -4176,7 +6027,408 @@
         <v>13.87</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52">
+        <f>65/72</f>
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="C52">
+        <f>7.6/8.5</f>
+        <v>0.89411764705882346</v>
+      </c>
+      <c r="D52">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <f>71/72</f>
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="C53">
+        <f>20.9/11.9</f>
+        <v>1.7563025210084031</v>
+      </c>
+      <c r="D53">
+        <v>26.79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="1">
+        <f>42/72</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C54">
+        <f>30.9/11.7</f>
+        <v>2.641025641025641</v>
+      </c>
+      <c r="D54">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55">
+        <f>70/72</f>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="C55">
+        <f>17.4/8.8</f>
+        <v>1.9772727272727268</v>
+      </c>
+      <c r="D55">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56">
+        <f>25/72</f>
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="C56">
+        <f>24.3/11.5</f>
+        <v>2.1130434782608698</v>
+      </c>
+      <c r="D56">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <f>17/72</f>
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="C57">
+        <f>29/19.3</f>
+        <v>1.5025906735751295</v>
+      </c>
+      <c r="D57">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58">
+        <f>48/72</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C58">
+        <f>16.3/12.1</f>
+        <v>1.3471074380165291</v>
+      </c>
+      <c r="D58">
+        <v>18.87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <f>72/72</f>
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <f>10.9/8.5</f>
+        <v>1.2823529411764707</v>
+      </c>
+      <c r="D59">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60">
+        <f>21/72</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C60">
+        <f>5.2/18.3</f>
+        <v>0.28415300546448086</v>
+      </c>
+      <c r="D60">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61">
+        <f>43/72</f>
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C61">
+        <f>11.5/8.5</f>
+        <v>1.3529411764705883</v>
+      </c>
+      <c r="D61">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62">
+        <f>72/72</f>
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f>28.4/11.9</f>
+        <v>2.3865546218487395</v>
+      </c>
+      <c r="D62">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63">
+        <f>66/72</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C63">
+        <f>8.4/11.1</f>
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="D63">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64">
+        <f>67/72</f>
+        <v>0.93055555555555558</v>
+      </c>
+      <c r="C64">
+        <f>22.1/11.4</f>
+        <v>1.9385964912280702</v>
+      </c>
+      <c r="D64">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65">
+        <f>65/72</f>
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="C65">
+        <f>24.3/10.6</f>
+        <v>2.2924528301886795</v>
+      </c>
+      <c r="D65">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <f>73/73</f>
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <f>32.5/12.2</f>
+        <v>2.6639344262295084</v>
+      </c>
+      <c r="D66">
+        <v>20.29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <f>71/72</f>
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="C67">
+        <f>13.9/8.2</f>
+        <v>1.6951219512195124</v>
+      </c>
+      <c r="D67">
+        <v>20.41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <f>66/72</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C68">
+        <f>8.5/14.2</f>
+        <v>0.59859154929577463</v>
+      </c>
+      <c r="D68">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69">
+        <f>70/72</f>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="C69">
+        <f>26.8/10.4</f>
+        <v>2.5769230769230771</v>
+      </c>
+      <c r="D69">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70">
+        <f>66/72</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C70">
+        <f>8.3/13.7</f>
+        <v>0.6058394160583942</v>
+      </c>
+      <c r="D70">
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71">
+        <f>66/72</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C71">
+        <f>19.1/9.6</f>
+        <v>1.9895833333333335</v>
+      </c>
+      <c r="D71">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72">
+        <f>45/72</f>
+        <v>0.625</v>
+      </c>
+      <c r="C72">
+        <f>25.3/11.3</f>
+        <v>2.2389380530973448</v>
+      </c>
+      <c r="D72">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73">
+        <f>41/72</f>
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C73">
+        <f>28.1/9.3</f>
+        <v>3.021505376344086</v>
+      </c>
+      <c r="D73">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74">
+        <f>60/72</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C74">
+        <f>13.4/7.8</f>
+        <v>1.7179487179487181</v>
+      </c>
+      <c r="D74">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <f>64/72</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C75">
+        <f>12.1/9.9</f>
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="D75">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76">
+        <f>16/72</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C76">
+        <f>10.5/13</f>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="D76">
+        <v>9.36</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/STATS.xlsx
+++ b/docs/STATS.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="146">
   <si>
     <t>PER</t>
   </si>
@@ -389,13 +389,136 @@
   <si>
     <t>Michael Beasley</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nene Hilario</t>
+  </si>
+  <si>
+    <t>Tony Parker</t>
+  </si>
+  <si>
+    <t>Al Jefferson</t>
+  </si>
+  <si>
+    <t>Paul Millsap</t>
+  </si>
+  <si>
+    <t>Paul Pierce</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Chris Bosh</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>Josh Smith</t>
+  </si>
+  <si>
+    <t>Ryan Anderson</t>
+  </si>
+  <si>
+    <t>Chris Andersen</t>
+  </si>
+  <si>
+    <t>Ramon Sessions</t>
+  </si>
+  <si>
+    <t>Louis Williams</t>
+  </si>
+  <si>
+    <t>Carlos Boozer</t>
+  </si>
+  <si>
+    <t>Joakim Noah</t>
+  </si>
+  <si>
+    <t>Monta Ellis</t>
+  </si>
+  <si>
+    <t>Elton Brand</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>Rodney Stuckey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tyson Chandler</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luis Scola</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony Allen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
+    <t>Tyson Chandler</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luis Scola</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rodney Stuckey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luis Scola</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony Allen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rodney Stuckey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luis Scola</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tyson Chandler</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rodney Stuckey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tyson Chandler</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony Allen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +547,11 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -445,10 +573,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,11 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1885,6 +2016,356 @@
         <v>15.54</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.91463414634146301</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="D77" s="3">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.95121951219512202</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2.5384615384615401</v>
+      </c>
+      <c r="D78" s="3">
+        <v>20.440000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1.3846153846153799</v>
+      </c>
+      <c r="D79" s="3">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1.31578947368421</v>
+      </c>
+      <c r="D80" s="3">
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1.5714285714285701</v>
+      </c>
+      <c r="D81" s="3">
+        <v>19.760000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.90243902439024404</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1.87096774193548</v>
+      </c>
+      <c r="D82" s="3">
+        <v>19.46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.93902439024390205</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1.05555555555556</v>
+      </c>
+      <c r="D83" s="3">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.76190476190476197</v>
+      </c>
+      <c r="D84" s="3">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.93902439024390205</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1.2692307692307701</v>
+      </c>
+      <c r="D85" s="3">
+        <v>19.309999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.78048780487804903</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.54878048780487798</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D87" s="3">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.98780487804878003</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2.3636363636363602</v>
+      </c>
+      <c r="D88" s="3">
+        <v>19.010000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.91463414634146301</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2.4285714285714302</v>
+      </c>
+      <c r="D89" s="3">
+        <v>18.93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.71951219512195097</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.58536585365853699</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1.15789473684211</v>
+      </c>
+      <c r="D91" s="3">
+        <v>18.829999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="D92" s="3">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.98780487804878003</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="D93" s="3">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.68292682926829296</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1.62962962962963</v>
+      </c>
+      <c r="D94" s="3">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D95" s="3">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.85365853658536595</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2.3636363636363602</v>
+      </c>
+      <c r="D96" s="3">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.90243902439024404</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D97" s="3">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.90243902439024404</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="D98" s="3">
+        <v>18.43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.87804878048780499</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="D99" s="3">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D101" s="3">
+        <v>14.81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1894,11 +2375,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3021,6 +3502,356 @@
         <v>13.11</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.47560975609756101</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.83221476510067105</v>
+      </c>
+      <c r="D77" s="3">
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.73170731707317105</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2.9615384615384599</v>
+      </c>
+      <c r="D78" s="3">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.74390243902439002</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D79" s="3">
+        <v>22.88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.78048780487804903</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1.2777777777777799</v>
+      </c>
+      <c r="D80" s="3">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.74390243902439002</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1.6071428571428601</v>
+      </c>
+      <c r="D81" s="3">
+        <v>19.690000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.31707317073170699</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="D82" s="3">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.69512195121951204</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="D83" s="3">
+        <v>18.940000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="3">
+        <v>6.0975609756097601E-2</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3">
+        <v>21.96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="D85" s="3">
+        <v>21.14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.74390243902439002</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.39024390243902402</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D87" s="3">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.78048780487804903</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2.5041322314049599</v>
+      </c>
+      <c r="D88" s="3">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.78048780487804903</v>
+      </c>
+      <c r="C89" s="3">
+        <v>3.1818181818181799</v>
+      </c>
+      <c r="D89" s="3">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1.1176470588235301</v>
+      </c>
+      <c r="D90" s="3">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.78048780487804903</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="D91" s="3">
+        <v>19.59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.707317073170732</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1.9523809523809501</v>
+      </c>
+      <c r="D92" s="3">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.73170731707317105</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="D93" s="3">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.109756097560976</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1.25925925925926</v>
+      </c>
+      <c r="D94" s="3">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.76829268292682895</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="D95" s="3">
+        <v>18.93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.67073170731707299</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3">
+        <v>17.62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.75609756097560998</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D97" s="3">
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.91304347826086996</v>
+      </c>
+      <c r="D98" s="3">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.707317073170732</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D99" s="3">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.76829268292682895</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="D101" s="3">
+        <v>16.39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3029,11 +3860,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4157,6 +4988,356 @@
         <v>10.91</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.74390243902439002</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1.26086956521739</v>
+      </c>
+      <c r="D77" s="3">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2.9230769230769198</v>
+      </c>
+      <c r="D78" s="3">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.95121951219512202</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1.6153846153846201</v>
+      </c>
+      <c r="D79" s="3">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.95121951219512202</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1.44444444444444</v>
+      </c>
+      <c r="D80" s="3">
+        <v>19.89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.93902439024390205</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="D81" s="3">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.95121951219512202</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2.2258064516128999</v>
+      </c>
+      <c r="D82" s="3">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.90243902439024404</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.90243902439024404</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="3">
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="D85" s="3">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.98780487804878003</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.51219512195121997</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D87" s="3">
+        <v>17.440000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.74390243902439002</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2.2352941176470602</v>
+      </c>
+      <c r="D88" s="3">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.47560975609756101</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1.8947368421052599</v>
+      </c>
+      <c r="D89" s="3">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.96341463414634099</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1.0454545454545501</v>
+      </c>
+      <c r="D90" s="3">
+        <v>17.170000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1.4814814814814801</v>
+      </c>
+      <c r="D91" s="3">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1.93548387096774</v>
+      </c>
+      <c r="D92" s="3">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.87804878048780499</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="D93" s="3">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.51219512195121997</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1.1785714285714299</v>
+      </c>
+      <c r="D94" s="3">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="D95" s="3">
+        <v>18.27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="D97" s="3">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1.4666666666666699</v>
+      </c>
+      <c r="D98" s="3">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.96341463414634099</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="3">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1.3888888888888899</v>
+      </c>
+      <c r="D100" s="3">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D101" s="3">
+        <v>17.21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4165,11 +5346,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5292,6 +6473,356 @@
         <v>16.8</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.64634146341463405</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1.3181818181818199</v>
+      </c>
+      <c r="D77" s="3">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.82926829268292701</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2.5909090909090899</v>
+      </c>
+      <c r="D78" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.89024390243902396</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1.23529411764706</v>
+      </c>
+      <c r="D79" s="3">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.90243902439024404</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="D80" s="3">
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.91463414634146301</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="D81" s="3">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.95121951219512202</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2.2368421052631602</v>
+      </c>
+      <c r="D82" s="3">
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.96341463414634099</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D83" s="3">
+        <v>19.11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.207317073170732</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D84" s="3">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.93902439024390205</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1.2692307692307701</v>
+      </c>
+      <c r="D85" s="3">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.26829268292682901</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="D86" s="3">
+        <v>18.89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.87804878048780499</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="D87" s="3">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1.01219512195122</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2.3009708737864099</v>
+      </c>
+      <c r="D88" s="3">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.73170731707317105</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2.3333333333333299</v>
+      </c>
+      <c r="D89" s="3">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D90" s="3">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="D91" s="3">
+        <v>20.059999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1.78125</v>
+      </c>
+      <c r="D92" s="3">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.89024390243902396</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="D93" s="3">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.78048780487804903</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1.5714285714285701</v>
+      </c>
+      <c r="D94" s="3">
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.96341463414634099</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1.0952380952381</v>
+      </c>
+      <c r="D95" s="3">
+        <v>16.64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.89024390243902396</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1.23529411764706</v>
+      </c>
+      <c r="D96" s="3">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.67073170731707299</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D97" s="3">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D98" s="3">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.67073170731707299</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1.0625</v>
+      </c>
+      <c r="D99" s="3">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.96341463414634099</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="D100" s="3">
+        <v>18.420000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D101" s="3">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5300,11 +6831,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6427,6 +7958,356 @@
         <v>9.36</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.85135135135135098</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.78378378378378399</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2.2272727272727302</v>
+      </c>
+      <c r="D78" s="3">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.82432432432432401</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="D79" s="3">
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.93243243243243201</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="3">
+        <v>20.34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.91891891891891897</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1.5384615384615401</v>
+      </c>
+      <c r="D81" s="3">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.94594594594594605</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2.54838709677419</v>
+      </c>
+      <c r="D82" s="3">
+        <v>28.11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.59459459459459496</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3">
+        <v>19.89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.82432432432432401</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D84" s="3">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.98648648648648696</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="D85" s="3">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.70270270270270296</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="D86" s="3">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.71621621621621601</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="D87" s="3">
+        <v>16.07</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.48648648648648701</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1.88405797101449</v>
+      </c>
+      <c r="D88" s="3">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="D89" s="3">
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1.07692307692308</v>
+      </c>
+      <c r="D90" s="3">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.81081081081081097</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2.6111111111111098</v>
+      </c>
+      <c r="D91" s="3">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.98648648648648696</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="D92" s="3">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.37837837837837801</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="D93" s="3">
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.68918918918918903</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1.8571428571428601</v>
+      </c>
+      <c r="D94" s="3">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1.5952380952381</v>
+      </c>
+      <c r="D95" s="3">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.82432432432432401</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1.8235294117647101</v>
+      </c>
+      <c r="D96" s="3">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.90540540540540504</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D97" s="3">
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.95945945945945899</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="D98" s="3">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.85135135135135098</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="3">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.70270270270270296</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1.61904761904762</v>
+      </c>
+      <c r="D100" s="3">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.98648648648648696</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D101" s="3">
+        <v>20.82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STATS.xlsx
+++ b/docs/STATS.xlsx
@@ -891,8 +891,8 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="A2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2378,8 +2378,8 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3863,8 +3863,8 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5349,8 +5349,8 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6834,8 +6834,8 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/docs/STATS.xlsx
+++ b/docs/STATS.xlsx
@@ -6834,8 +6834,8 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D101"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
